--- a/Anova.xlsx
+++ b/Anova.xlsx
@@ -11,13 +11,14 @@
     <sheet name="mIoU-Expert" sheetId="2" r:id="rId2"/>
     <sheet name="Seconds-Algorithm" sheetId="3" r:id="rId3"/>
     <sheet name="mIoU-Algorithm" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="27">
   <si>
     <t>Labelbox</t>
   </si>
@@ -1252,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="A1:C54"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,47 +2194,47 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -2243,59 +2244,208 @@
       <c r="C44" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45">
         <v>113</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>76</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1">
+        <v>781</v>
+      </c>
+      <c r="H48" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1833.6555555555558</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>119</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4</v>
+      </c>
+      <c r="G49" s="2">
+        <v>182</v>
+      </c>
+      <c r="H49" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="I49" s="2">
+        <v>496.33333333333331</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>60</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>138</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>117</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3036.4571428571398</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>3036.4571428571398</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2.0252161091538792</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.1801817302314255</v>
+      </c>
+      <c r="K54" s="1">
+        <v>4.7472253467225149</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="1">
+        <v>17991.900000000001</v>
+      </c>
+      <c r="G55" s="1">
+        <v>12</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1499.325</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="2">
+        <v>21028.357142857141</v>
+      </c>
+      <c r="G57" s="2">
+        <v>13</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2304,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,21 +2480,33 @@
       <c r="B2">
         <v>0.65</v>
       </c>
+      <c r="C2">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.49</v>
       </c>
+      <c r="C3">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.48</v>
       </c>
+      <c r="C4">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.49</v>
       </c>
+      <c r="C5">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -2444,21 +2606,33 @@
       <c r="B25">
         <v>0.51</v>
       </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.47</v>
       </c>
+      <c r="C26">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.77</v>
       </c>
+      <c r="C27">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.51</v>
       </c>
+      <c r="C28">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29">
@@ -2480,42 +2654,42 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>0.54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0.59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>0.66</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -2525,61 +2699,223 @@
       <c r="C43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
       <c r="B44">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0.59</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>0.53</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5.6400000000000006</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.56400000000000006</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2.9599999999999991E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2.3600000000000003</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2.8666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0.54</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0.56999999999999995</v>
       </c>
+      <c r="E53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1.9314285714285701E-3</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.9314285714285701E-3</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.65769417869304325</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.43316593058534547</v>
+      </c>
+      <c r="K53" s="1">
+        <v>4.7472253467225149</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3.5239999999999994E-2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>12</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2.936666666666666E-3</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="2">
+        <v>3.7171428571428564E-2</v>
+      </c>
+      <c r="G56" s="2">
+        <v>13</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Anova.xlsx
+++ b/Anova.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Seconds-Annotation" sheetId="1" r:id="rId1"/>
-    <sheet name="mIoU-Expert" sheetId="2" r:id="rId2"/>
-    <sheet name="Seconds-Algorithm" sheetId="3" r:id="rId3"/>
+    <sheet name="Seconds-Algorithm" sheetId="3" r:id="rId2"/>
+    <sheet name="mIoU-Expert" sheetId="2" r:id="rId3"/>
     <sheet name="mIoU-Algorithm" sheetId="4" r:id="rId4"/>
-    <sheet name="Tabelle5" sheetId="5" r:id="rId5"/>
+    <sheet name="Asthma" sheetId="5" r:id="rId5"/>
+    <sheet name="EIPH" sheetId="6" r:id="rId6"/>
+    <sheet name="Mitosen" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="31">
   <si>
     <t>Labelbox</t>
   </si>
@@ -100,11 +102,26 @@
   <si>
     <t>level &gt;=3</t>
   </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>mIoU</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,13 +179,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -473,7 +491,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C54"/>
+      <selection activeCell="C26" sqref="C26:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,13 +1271,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B54"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1270,273 +1288,112 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>0.45</v>
-      </c>
-      <c r="C2">
-        <v>0.42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>0.48</v>
-      </c>
-      <c r="C5">
-        <v>0.36</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>0.44</v>
-      </c>
-      <c r="C6">
-        <v>0.52</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1">
-        <v>9.2279999999999998</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.46139999999999998</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8.2076210526316421E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>0.45</v>
-      </c>
-      <c r="C7">
-        <v>0.47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
-        <v>4.2799999999999994</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.42799999999999994</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2.5733333333333658E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0.48</v>
-      </c>
-      <c r="C8">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>0.34</v>
-      </c>
-      <c r="C9">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>0.44</v>
-      </c>
-      <c r="C10">
-        <v>0.36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>0.46</v>
-      </c>
-      <c r="C11">
-        <v>0.43</v>
-      </c>
-      <c r="E11" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1">
-        <v>7.4370666666666307E-3</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>7.4370666666666307E-3</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1.1626593294354233</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.29011664915404167</v>
-      </c>
-      <c r="K12" s="1">
-        <v>4.195971818557763</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>0.49</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.17910480000000006</v>
-      </c>
-      <c r="G13" s="1">
-        <v>28</v>
-      </c>
-      <c r="H13" s="1">
-        <v>6.3966000000000023E-3</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>0.59</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>0.43</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.18654186666666669</v>
-      </c>
-      <c r="G15" s="2">
-        <v>29</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1544,249 +1401,88 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>0.45</v>
-      </c>
-      <c r="C26">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>0.48</v>
-      </c>
-      <c r="C27">
-        <v>0.42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>0.34</v>
-      </c>
-      <c r="C28">
-        <v>0.4</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>0.44</v>
-      </c>
-      <c r="C29">
-        <v>0.36</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1">
-        <v>7.0699999999999994</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.47133333333333327</v>
-      </c>
-      <c r="I29" s="1">
-        <v>8.7123809523810269E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30">
-        <v>0.46</v>
-      </c>
-      <c r="C30">
-        <v>0.52</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>10</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4.2799999999999994</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.42799999999999994</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2.5733333333333658E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C31">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>0.49</v>
-      </c>
-      <c r="C32">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33">
-        <v>0.59</v>
-      </c>
-      <c r="C33">
-        <v>0.42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>0.43</v>
-      </c>
-      <c r="C34">
-        <v>0.36</v>
-      </c>
-      <c r="E34" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>11</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>0.34</v>
-      </c>
-      <c r="C35">
-        <v>0.43</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1.1266666666666675E-2</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1.1266666666666675E-2</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1.7854846118511727</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.19454793176301519</v>
-      </c>
-      <c r="K35" s="1">
-        <v>4.2793443091446495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>0.49</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.14513333333333334</v>
-      </c>
-      <c r="G36" s="1">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>23</v>
-      </c>
-      <c r="H36" s="1">
-        <v>6.310144927536232E-3</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>0.68</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <v>0.34</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.15640000000000001</v>
-      </c>
-      <c r="G38" s="2">
-        <v>24</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>26</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -1798,34 +1494,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>0.56000000000000005</v>
+        <v>113</v>
       </c>
       <c r="C45">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>0.49</v>
+        <v>79</v>
       </c>
       <c r="C46">
-        <v>0.42</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>0.59</v>
+        <v>24</v>
       </c>
       <c r="C47">
-        <v>0.4</v>
+        <v>76</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
@@ -1843,12 +1539,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>0.43</v>
+        <v>67</v>
       </c>
       <c r="C48">
-        <v>0.36</v>
+        <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>0</v>
@@ -1857,60 +1553,48 @@
         <v>10</v>
       </c>
       <c r="G48" s="1">
-        <v>4.9000000000000004</v>
+        <v>781</v>
       </c>
       <c r="H48" s="1">
-        <v>0.49000000000000005</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="I48" s="1">
-        <v>1.1066666666666582E-2</v>
+        <v>1833.6555555555558</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>0.34</v>
-      </c>
-      <c r="C49">
-        <v>0.52</v>
+        <v>119</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F49" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G49" s="2">
-        <v>4.2799999999999994</v>
+        <v>182</v>
       </c>
       <c r="H49" s="2">
-        <v>0.42799999999999994</v>
+        <v>45.5</v>
       </c>
       <c r="I49" s="2">
-        <v>2.5733333333333658E-3</v>
+        <v>496.33333333333331</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>0.49</v>
-      </c>
-      <c r="C50">
-        <v>0.47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>0.68</v>
-      </c>
-      <c r="C51">
-        <v>0.48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>0.34</v>
-      </c>
-      <c r="C52">
-        <v>0.42</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -1918,10 +1602,7 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>0.49</v>
-      </c>
-      <c r="C53">
-        <v>0.36</v>
+        <v>138</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>11</v>
@@ -1947,31 +1628,28 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>0.49</v>
-      </c>
-      <c r="C54">
-        <v>0.43</v>
+        <v>117</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="1">
-        <v>1.9220000000000015E-2</v>
+        <v>3036.4571428571398</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
       </c>
       <c r="H54" s="1">
-        <v>1.9220000000000015E-2</v>
+        <v>3036.4571428571398</v>
       </c>
       <c r="I54" s="1">
-        <v>2.8181818181818201</v>
+        <v>2.0252161091538792</v>
       </c>
       <c r="J54" s="1">
-        <v>0.11047740592008679</v>
+        <v>0.1801817302314255</v>
       </c>
       <c r="K54" s="1">
-        <v>4.4138734191705664</v>
+        <v>4.7472253467225149</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -1979,13 +1657,13 @@
         <v>19</v>
       </c>
       <c r="F55" s="1">
-        <v>0.12276000000000001</v>
+        <v>17991.900000000001</v>
       </c>
       <c r="G55" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H55" s="1">
-        <v>6.8200000000000005E-3</v>
+        <v>1499.325</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2005,10 +1683,10 @@
         <v>20</v>
       </c>
       <c r="F57" s="2">
-        <v>0.14198000000000002</v>
+        <v>21028.357142857141</v>
       </c>
       <c r="G57" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2017,7 +1695,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2025,13 +1702,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2042,112 +1719,273 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+      <c r="C2">
+        <v>0.42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.48</v>
+      </c>
+      <c r="C5">
+        <v>0.36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+      <c r="C6">
+        <v>0.52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.2279999999999998</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.2076210526316421E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+      <c r="C7">
+        <v>0.47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.42799999999999994</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.5733333333333658E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.48</v>
+      </c>
+      <c r="C8">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+      <c r="C9">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+      <c r="C10">
+        <v>0.36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.46</v>
+      </c>
+      <c r="C11">
+        <v>0.43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7.4370666666666307E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>7.4370666666666307E-3</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.1626593294354233</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.29011664915404167</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4.195971818557763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.17910480000000006</v>
+      </c>
+      <c r="G13" s="1">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6.3966000000000023E-3</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.59</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.18654186666666669</v>
+      </c>
+      <c r="G15" s="2">
+        <v>29</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -2155,88 +1993,249 @@
       <c r="C25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+      <c r="C26">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.48</v>
+      </c>
+      <c r="C27">
+        <v>0.42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+      <c r="C28">
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+      <c r="C29">
+        <v>0.36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.47133333333333327</v>
+      </c>
+      <c r="I29" s="1">
+        <v>8.7123809523810269E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.46</v>
+      </c>
+      <c r="C30">
+        <v>0.52</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.42799999999999994</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2.5733333333333658E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C31">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+      <c r="C32">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33">
+        <v>0.59</v>
+      </c>
+      <c r="C33">
+        <v>0.42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.43</v>
+      </c>
+      <c r="C34">
+        <v>0.36</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.34</v>
+      </c>
+      <c r="C35">
+        <v>0.43</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.1266666666666675E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.1266666666666675E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1.7854846118511727</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.19454793176301519</v>
+      </c>
+      <c r="K35" s="1">
+        <v>4.2793443091446495</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.49</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.14513333333333334</v>
+      </c>
+      <c r="G36" s="1">
+        <v>23</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6.310144927536232E-3</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.68</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>0.34</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="G38" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
@@ -2248,34 +2247,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>113</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C45">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>79</v>
+        <v>0.49</v>
       </c>
       <c r="C46">
-        <v>48</v>
+        <v>0.42</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47">
-        <v>24</v>
+        <v>0.59</v>
       </c>
       <c r="C47">
-        <v>76</v>
+        <v>0.4</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
@@ -2293,12 +2292,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48">
-        <v>67</v>
+        <v>0.43</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>0.36</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>0</v>
@@ -2307,48 +2306,60 @@
         <v>10</v>
       </c>
       <c r="G48" s="1">
-        <v>781</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H48" s="1">
-        <v>78.099999999999994</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="I48" s="1">
-        <v>1833.6555555555558</v>
+        <v>1.1066666666666582E-2</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>119</v>
+        <v>0.34</v>
+      </c>
+      <c r="C49">
+        <v>0.52</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F49" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2">
-        <v>182</v>
+        <v>4.2799999999999994</v>
       </c>
       <c r="H49" s="2">
-        <v>45.5</v>
+        <v>0.42799999999999994</v>
       </c>
       <c r="I49" s="2">
-        <v>496.33333333333331</v>
+        <v>2.5733333333333658E-3</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
-        <v>11</v>
+        <v>0.49</v>
+      </c>
+      <c r="C50">
+        <v>0.47</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
-        <v>53</v>
+        <v>0.68</v>
+      </c>
+      <c r="C51">
+        <v>0.48</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>60</v>
+        <v>0.34</v>
+      </c>
+      <c r="C52">
+        <v>0.42</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -2356,7 +2367,10 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
-        <v>138</v>
+        <v>0.49</v>
+      </c>
+      <c r="C53">
+        <v>0.36</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>11</v>
@@ -2382,28 +2396,31 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54">
-        <v>117</v>
+        <v>0.49</v>
+      </c>
+      <c r="C54">
+        <v>0.43</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F54" s="1">
-        <v>3036.4571428571398</v>
+        <v>1.9220000000000015E-2</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
       </c>
       <c r="H54" s="1">
-        <v>3036.4571428571398</v>
+        <v>1.9220000000000015E-2</v>
       </c>
       <c r="I54" s="1">
-        <v>2.0252161091538792</v>
+        <v>2.8181818181818201</v>
       </c>
       <c r="J54" s="1">
-        <v>0.1801817302314255</v>
+        <v>0.11047740592008679</v>
       </c>
       <c r="K54" s="1">
-        <v>4.7472253467225149</v>
+        <v>4.4138734191705664</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -2411,13 +2428,13 @@
         <v>19</v>
       </c>
       <c r="F55" s="1">
-        <v>17991.900000000001</v>
+        <v>0.12276000000000001</v>
       </c>
       <c r="G55" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H55" s="1">
-        <v>1499.325</v>
+        <v>6.8200000000000005E-3</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2437,10 +2454,10 @@
         <v>20</v>
       </c>
       <c r="F57" s="2">
-        <v>21028.357142857141</v>
+        <v>0.14198000000000002</v>
       </c>
       <c r="G57" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -2449,6 +2466,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2456,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,12 +2928,1387 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>114</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>154</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>113</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1051</v>
+      </c>
+      <c r="H5" s="1">
+        <v>105.1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>920.32222222222163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>140</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2">
+        <v>17.25</v>
+      </c>
+      <c r="I6" s="2">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>85</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>126</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>22050.35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>22050.35</v>
+      </c>
+      <c r="I11" s="1">
+        <v>31.781806825893472</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.0941925353436047E-4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4.7472253467225149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8325.65</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <v>693.80416666666667</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30376</v>
+      </c>
+      <c r="G14" s="2">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0.76</v>
+      </c>
+      <c r="C18">
+        <v>0.83</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.85</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.84</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C21">
+        <v>0.83</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5.931</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8.1325433333333405E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0.77</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>9.166666666666683E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0.59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.74</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.76</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.1706610285714284</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.1706610285714284</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2.7969426861249178</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.12029325853451502</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4.7472253467225149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.73220390000000002</v>
+      </c>
+      <c r="G28" s="1">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6.1016991666666666E-2</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.90286492857142842</v>
+      </c>
+      <c r="G30" s="2">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>76</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>69</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>572</v>
+      </c>
+      <c r="I5" s="1">
+        <v>57.2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>449.95555555555541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>104</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>182</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="J6" s="2">
+        <v>496.33333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1">
+        <v>391.11428571428405</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>391.11428571428405</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.8473931008867599</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.37542602397443514</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4.7472253467225149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5538.6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <v>461.55</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5929.7142857142844</v>
+      </c>
+      <c r="H14" s="2">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0.42</v>
+      </c>
+      <c r="C18">
+        <v>0.66</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0.42</v>
+      </c>
+      <c r="C19">
+        <v>0.59</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.4</v>
+      </c>
+      <c r="C20">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.36</v>
+      </c>
+      <c r="C21">
+        <v>0.53</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.42799999999999994</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.5733333333333658E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0.52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2.3600000000000003</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2.8666666666666671E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0.42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.36</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7.4982857142857129E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7.4982857142857129E-2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>28.331054336092112</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1.8149833521397755E-4</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4.7472253467225149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.1760000000000004E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2.646666666666667E-3</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.10674285714285713</v>
+      </c>
+      <c r="H30" s="2">
+        <v>13</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>242</v>
+      </c>
+      <c r="C2">
+        <v>162</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>478</v>
+      </c>
+      <c r="C3">
+        <v>154</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>206</v>
+      </c>
+      <c r="C4">
+        <v>248</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>137</v>
+      </c>
+      <c r="C5">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3378</v>
+      </c>
+      <c r="I5" s="1">
+        <v>337.8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>23234.17777777779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>590</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>625</v>
+      </c>
+      <c r="I6" s="2">
+        <v>156.25</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5842.916666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>233</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>213</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>496</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1">
+        <v>94172.578571428632</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>94172.578571428632</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4.9862740149898448</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4.5365474083728305E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4.7472253467225149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1">
+        <v>226636.35</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <v>18886.362499999999</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>320808.92857142864</v>
+      </c>
+      <c r="H14" s="2">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0.48</v>
+      </c>
+      <c r="C18">
+        <v>0.75</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19">
+        <v>0.77</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.4</v>
+      </c>
+      <c r="C20">
+        <v>0.72</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.53</v>
+      </c>
+      <c r="C21">
+        <v>0.71</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4.2700000000000005</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.42700000000000005</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5.1122222222221604E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>0.37</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2">
+        <v>4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7.5833333333333471E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>0.38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.51</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.27545785714285709</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.27545785714285709</v>
+      </c>
+      <c r="J27" s="1">
+        <v>68.457994940753537</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2.6592392991871454E-6</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4.7472253467225149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.8285000000000008E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4.0237500000000004E-3</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.32374285714285711</v>
+      </c>
+      <c r="H30" s="2">
+        <v>13</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Anova.xlsx
+++ b/Anova.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="4"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Seconds-Annotation" sheetId="1" r:id="rId1"/>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2930,11 +2930,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -2958,10 +2961,7 @@
         <v>114</v>
       </c>
       <c r="C2">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2969,10 +2969,7 @@
         <v>154</v>
       </c>
       <c r="C3">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -2983,10 +2980,7 @@
         <v>113</v>
       </c>
       <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>5</v>
@@ -3009,10 +3003,7 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
@@ -3034,36 +3025,48 @@
       <c r="B6">
         <v>140</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="H6" s="2">
-        <v>17.25</v>
+        <v>15.1</v>
       </c>
       <c r="I6" s="2">
-        <v>14.25</v>
+        <v>72.100000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>96</v>
       </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>72</v>
       </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>95</v>
       </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
@@ -3072,6 +3075,9 @@
       <c r="B10">
         <v>85</v>
       </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
@@ -3098,26 +3104,29 @@
       <c r="B11">
         <v>126</v>
       </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="1">
-        <v>22050.35</v>
+        <v>40500.000000000015</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>22050.35</v>
+        <v>40500.000000000015</v>
       </c>
       <c r="I11" s="1">
-        <v>31.781806825893472</v>
+        <v>81.618486755189366</v>
       </c>
       <c r="J11" s="1">
-        <v>1.0941925353436047E-4</v>
+        <v>4.1616693554727879E-8</v>
       </c>
       <c r="K11" s="1">
-        <v>4.7472253467225149</v>
+        <v>4.4138734191705664</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3125,13 +3134,13 @@
         <v>19</v>
       </c>
       <c r="F12" s="1">
-        <v>8325.65</v>
+        <v>8931.7999999999993</v>
       </c>
       <c r="G12" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1">
-        <v>693.80416666666667</v>
+        <v>496.21111111111105</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3151,10 +3160,10 @@
         <v>20</v>
       </c>
       <c r="F14" s="2">
-        <v>30376</v>
+        <v>49431.800000000017</v>
       </c>
       <c r="G14" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -3180,10 +3189,7 @@
         <v>0.76</v>
       </c>
       <c r="C18">
-        <v>0.83</v>
-      </c>
-      <c r="D18">
-        <v>11</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3191,10 +3197,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="C19">
-        <v>0.85</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
+        <v>0.84</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -3205,10 +3208,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="C20">
-        <v>0.84</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
+        <v>0.85</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>5</v>
@@ -3231,10 +3231,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C21">
-        <v>0.83</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
+        <v>0.84</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>27</v>
@@ -3256,36 +3253,48 @@
       <c r="B22">
         <v>0.77</v>
       </c>
+      <c r="C22">
+        <v>0.82</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
-        <v>3.35</v>
+        <v>8.35</v>
       </c>
       <c r="H22" s="2">
-        <v>0.83750000000000002</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="I22" s="2">
-        <v>9.166666666666683E-5</v>
+        <v>1.8333333333333304E-4</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.82</v>
       </c>
+      <c r="C23">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.78</v>
       </c>
+      <c r="C24">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0.59</v>
       </c>
+      <c r="C25">
+        <v>0.83</v>
+      </c>
       <c r="E25" t="s">
         <v>10</v>
       </c>
@@ -3294,6 +3303,9 @@
       <c r="B26">
         <v>0.74</v>
       </c>
+      <c r="C26">
+        <v>0.85</v>
+      </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
@@ -3320,26 +3332,29 @@
       <c r="B27">
         <v>0.76</v>
       </c>
+      <c r="C27">
+        <v>0.83</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="1">
-        <v>0.1706610285714284</v>
+        <v>0.29257805000000003</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <v>0.1706610285714284</v>
+        <v>0.29257805000000003</v>
       </c>
       <c r="I27" s="1">
-        <v>2.7969426861249178</v>
+        <v>7.1790572220656834</v>
       </c>
       <c r="J27" s="1">
-        <v>0.12029325853451502</v>
+        <v>1.5306993126623581E-2</v>
       </c>
       <c r="K27" s="1">
-        <v>4.7472253467225149</v>
+        <v>4.4138734191705664</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3347,13 +3362,13 @@
         <v>19</v>
       </c>
       <c r="F28" s="1">
-        <v>0.73220390000000002</v>
+        <v>0.73357890000000003</v>
       </c>
       <c r="G28" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H28" s="1">
-        <v>6.1016991666666666E-2</v>
+        <v>4.0754383333333338E-2</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3373,10 +3388,10 @@
         <v>20</v>
       </c>
       <c r="F30" s="2">
-        <v>0.90286492857142842</v>
+        <v>1.0261569500000001</v>
       </c>
       <c r="G30" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3393,8 +3408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,7 +3447,7 @@
         <v>70</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -3446,7 +3461,7 @@
         <v>58</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -3472,7 +3487,7 @@
         <v>69</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -3497,36 +3512,48 @@
       <c r="B6">
         <v>104</v>
       </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
-        <v>182</v>
+        <v>375</v>
       </c>
       <c r="I6" s="2">
-        <v>45.5</v>
+        <v>37.5</v>
       </c>
       <c r="J6" s="2">
-        <v>496.33333333333331</v>
+        <v>290.05555555555554</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>41</v>
       </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>45</v>
       </c>
+      <c r="C8">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>36</v>
       </c>
+      <c r="C9">
+        <v>31</v>
+      </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
@@ -3535,6 +3562,9 @@
       <c r="B10">
         <v>31</v>
       </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
@@ -3561,26 +3591,29 @@
       <c r="B11">
         <v>58</v>
       </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="1">
-        <v>391.11428571428405</v>
+        <v>1940.4499999999989</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>391.11428571428405</v>
+        <v>1940.4499999999989</v>
       </c>
       <c r="J11" s="1">
-        <v>0.8473931008867599</v>
+        <v>5.2443807150042758</v>
       </c>
       <c r="K11" s="1">
-        <v>0.37542602397443514</v>
+        <v>3.4310912357822583E-2</v>
       </c>
       <c r="L11" s="1">
-        <v>4.7472253467225149</v>
+        <v>4.4138734191705664</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3588,13 +3621,13 @@
         <v>19</v>
       </c>
       <c r="G12" s="1">
-        <v>5538.6</v>
+        <v>6660.1</v>
       </c>
       <c r="H12" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1">
-        <v>461.55</v>
+        <v>370.00555555555559</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3614,10 +3647,10 @@
         <v>20</v>
       </c>
       <c r="G14" s="2">
-        <v>5929.7142857142844</v>
+        <v>8600.5499999999993</v>
       </c>
       <c r="H14" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -3643,7 +3676,7 @@
         <v>0.42</v>
       </c>
       <c r="C18">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="D18">
         <v>11</v>
@@ -3654,7 +3687,7 @@
         <v>0.42</v>
       </c>
       <c r="C19">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -3694,7 +3727,7 @@
         <v>0.36</v>
       </c>
       <c r="C21">
-        <v>0.53</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -3719,36 +3752,48 @@
       <c r="B22">
         <v>0.52</v>
       </c>
+      <c r="C22">
+        <v>0.63</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H22" s="2">
-        <v>2.3600000000000003</v>
+        <v>6.26</v>
       </c>
       <c r="I22" s="2">
-        <v>0.59000000000000008</v>
+        <v>0.626</v>
       </c>
       <c r="J22" s="2">
-        <v>2.8666666666666671E-3</v>
+        <v>6.6711111111111953E-3</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.47</v>
       </c>
+      <c r="C23">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.48</v>
       </c>
+      <c r="C24">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>0.42</v>
       </c>
+      <c r="C25">
+        <v>0.66</v>
+      </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
@@ -3757,6 +3802,9 @@
       <c r="B26">
         <v>0.36</v>
       </c>
+      <c r="C26">
+        <v>0.74</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>11</v>
       </c>
@@ -3783,26 +3831,29 @@
       <c r="B27">
         <v>0.43</v>
       </c>
+      <c r="C27">
+        <v>0.63</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="1">
-        <v>7.4982857142857129E-2</v>
+        <v>0.19602000000000006</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
       </c>
       <c r="I27" s="1">
-        <v>7.4982857142857129E-2</v>
+        <v>0.19602000000000006</v>
       </c>
       <c r="J27" s="1">
-        <v>28.331054336092112</v>
+        <v>42.408173076923077</v>
       </c>
       <c r="K27" s="1">
-        <v>1.8149833521397755E-4</v>
+        <v>4.0167498250562894E-6</v>
       </c>
       <c r="L27" s="1">
-        <v>4.7472253467225149</v>
+        <v>4.4138734191705664</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3810,13 +3861,13 @@
         <v>19</v>
       </c>
       <c r="G28" s="1">
-        <v>3.1760000000000004E-2</v>
+        <v>8.3200000000000024E-2</v>
       </c>
       <c r="H28" s="1">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I28" s="1">
-        <v>2.646666666666667E-3</v>
+        <v>4.6222222222222237E-3</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3836,10 +3887,10 @@
         <v>20</v>
       </c>
       <c r="G30" s="2">
-        <v>0.10674285714285713</v>
+        <v>0.27922000000000008</v>
       </c>
       <c r="H30" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>

--- a/Anova.xlsx
+++ b/Anova.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="5"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="20115" windowHeight="8265" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Seconds-Annotation" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Asthma" sheetId="5" r:id="rId5"/>
     <sheet name="EIPH" sheetId="6" r:id="rId6"/>
     <sheet name="Mitosen" sheetId="7" r:id="rId7"/>
+    <sheet name="MitosenNeu" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="31">
   <si>
     <t>Labelbox</t>
   </si>
@@ -122,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +138,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -187,6 +199,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -494,7 +511,7 @@
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
@@ -503,7 +520,7 @@
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -514,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -528,7 +545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3">
         <v>134</v>
       </c>
@@ -536,7 +553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="B4">
         <v>237</v>
       </c>
@@ -547,7 +564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5">
         <v>76</v>
       </c>
@@ -570,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6">
         <v>70</v>
       </c>
@@ -593,7 +610,7 @@
         <v>2310.6421052631586</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="B7">
         <v>92</v>
       </c>
@@ -616,7 +633,7 @@
         <v>667.65555555555568</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8">
         <v>121</v>
       </c>
@@ -624,7 +641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9">
         <v>141</v>
       </c>
@@ -632,7 +649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="B10">
         <v>48</v>
       </c>
@@ -643,7 +660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11">
         <v>53</v>
       </c>
@@ -672,7 +689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12">
         <v>139</v>
       </c>
@@ -698,7 +715,7 @@
         <v>4.195971818557763</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13">
         <v>118</v>
       </c>
@@ -718,7 +735,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14">
         <v>93</v>
       </c>
@@ -730,7 +747,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="B15">
         <v>103</v>
       </c>
@@ -748,37 +765,37 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="B17">
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="B18">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="B20">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="B21">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -789,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -803,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="B27">
         <v>121</v>
       </c>
@@ -811,7 +828,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
       <c r="B28">
         <v>141</v>
       </c>
@@ -822,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="B29">
         <v>48</v>
       </c>
@@ -845,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30">
         <v>53</v>
       </c>
@@ -868,7 +885,7 @@
         <v>1650.6857142857148</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="B31">
         <v>139</v>
       </c>
@@ -891,7 +908,7 @@
         <v>449.95555555555541</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32">
         <v>118</v>
       </c>
@@ -899,7 +916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="B33">
         <v>93</v>
       </c>
@@ -907,7 +924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1">
       <c r="B34">
         <v>103</v>
       </c>
@@ -918,7 +935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="B35">
         <v>76</v>
       </c>
@@ -947,7 +964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="B36">
         <v>194</v>
       </c>
@@ -973,7 +990,7 @@
         <v>4.2793443091446495</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="B37">
         <v>79</v>
       </c>
@@ -993,7 +1010,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="B38">
         <v>48</v>
       </c>
@@ -1005,7 +1022,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
       <c r="B39">
         <v>66</v>
       </c>
@@ -1023,12 +1040,12 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="B40">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="B46">
         <v>118</v>
       </c>
@@ -1061,7 +1078,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1">
       <c r="B47">
         <v>93</v>
       </c>
@@ -1072,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="B48">
         <v>103</v>
       </c>
@@ -1095,7 +1112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11">
       <c r="B49">
         <v>76</v>
       </c>
@@ -1118,7 +1135,7 @@
         <v>1765.1555555555549</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="15.75" thickBot="1">
       <c r="B50">
         <v>194</v>
       </c>
@@ -1141,7 +1158,7 @@
         <v>449.95555555555541</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11">
       <c r="B51">
         <v>79</v>
       </c>
@@ -1149,7 +1166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11">
       <c r="B52">
         <v>48</v>
       </c>
@@ -1157,7 +1174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:11" ht="15.75" thickBot="1">
       <c r="B53">
         <v>66</v>
       </c>
@@ -1168,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11">
       <c r="B54">
         <v>120</v>
       </c>
@@ -1197,7 +1214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11">
       <c r="E55" s="1" t="s">
         <v>18</v>
       </c>
@@ -1220,7 +1237,7 @@
         <v>4.4138734191705664</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11">
       <c r="E56" s="1" t="s">
         <v>19</v>
       </c>
@@ -1237,7 +1254,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1246,7 +1263,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" ht="15.75" thickBot="1">
       <c r="E58" s="2" t="s">
         <v>20</v>
       </c>
@@ -1275,9 +1292,9 @@
       <selection activeCell="C45" sqref="C45:C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1288,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1296,102 +1313,102 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="B17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="B18">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="B19">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="B20">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="B21">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1402,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1410,77 +1427,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="B27">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="B28">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="B29">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="B30">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="B31">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="B32">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="B33">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="B35">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="B36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="B37">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="B38">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="B39">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="B40">
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -1494,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1505,7 +1522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1">
       <c r="B46">
         <v>79</v>
       </c>
@@ -1516,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="B47">
         <v>24</v>
       </c>
@@ -1539,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="B48">
         <v>67</v>
       </c>
@@ -1562,7 +1579,7 @@
         <v>1833.6555555555558</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="15.75" thickBot="1">
       <c r="B49">
         <v>119</v>
       </c>
@@ -1582,17 +1599,17 @@
         <v>496.33333333333331</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11">
       <c r="B50">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11">
       <c r="B51">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" ht="15.75" thickBot="1">
       <c r="B52">
         <v>60</v>
       </c>
@@ -1600,7 +1617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11">
       <c r="B53">
         <v>138</v>
       </c>
@@ -1626,7 +1643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11">
       <c r="B54">
         <v>117</v>
       </c>
@@ -1652,7 +1669,7 @@
         <v>4.7472253467225149</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11">
       <c r="E55" s="1" t="s">
         <v>19</v>
       </c>
@@ -1669,7 +1686,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1678,7 +1695,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" ht="15.75" thickBot="1">
       <c r="E57" s="2" t="s">
         <v>20</v>
       </c>
@@ -1706,9 +1723,9 @@
       <selection activeCell="C45" sqref="C45:C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1733,7 +1750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3">
         <v>0.5</v>
       </c>
@@ -1741,7 +1758,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="B4">
         <v>0.28799999999999998</v>
       </c>
@@ -1752,7 +1769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5">
         <v>0.48</v>
       </c>
@@ -1775,7 +1792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6">
         <v>0.44</v>
       </c>
@@ -1798,7 +1815,7 @@
         <v>8.2076210526316421E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="B7">
         <v>0.45</v>
       </c>
@@ -1821,7 +1838,7 @@
         <v>2.5733333333333658E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8">
         <v>0.48</v>
       </c>
@@ -1829,7 +1846,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9">
         <v>0.34</v>
       </c>
@@ -1837,7 +1854,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="B10">
         <v>0.44</v>
       </c>
@@ -1848,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11">
         <v>0.46</v>
       </c>
@@ -1877,7 +1894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12">
         <v>0.56000000000000005</v>
       </c>
@@ -1903,7 +1920,7 @@
         <v>4.195971818557763</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13">
         <v>0.49</v>
       </c>
@@ -1923,7 +1940,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14">
         <v>0.59</v>
       </c>
@@ -1935,7 +1952,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="B15">
         <v>0.43</v>
       </c>
@@ -1953,37 +1970,37 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16">
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="B17">
         <v>0.49</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="B18">
         <v>0.68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="B19">
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="B20">
         <v>0.49</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="B21">
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1997,7 +2014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2008,7 +2025,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="B27">
         <v>0.48</v>
       </c>
@@ -2019,7 +2036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="B28">
         <v>0.34</v>
       </c>
@@ -2042,7 +2059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="B29">
         <v>0.44</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>8.7123809523810269E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="B30">
         <v>0.46</v>
       </c>
@@ -2088,7 +2105,7 @@
         <v>2.5733333333333658E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="B31">
         <v>0.56000000000000005</v>
       </c>
@@ -2096,7 +2113,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="B32">
         <v>0.49</v>
       </c>
@@ -2104,7 +2121,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1">
       <c r="B33">
         <v>0.59</v>
       </c>
@@ -2115,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="B34">
         <v>0.43</v>
       </c>
@@ -2144,7 +2161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="B35">
         <v>0.34</v>
       </c>
@@ -2173,7 +2190,7 @@
         <v>4.2793443091446495</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="B36">
         <v>0.49</v>
       </c>
@@ -2193,7 +2210,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="B37">
         <v>0.68</v>
       </c>
@@ -2205,7 +2222,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1">
       <c r="B38">
         <v>0.34</v>
       </c>
@@ -2223,17 +2240,17 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="B39">
         <v>0.49</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="B40">
         <v>0.49</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -2247,7 +2264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -2258,7 +2275,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1">
       <c r="B46">
         <v>0.49</v>
       </c>
@@ -2269,7 +2286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="B47">
         <v>0.59</v>
       </c>
@@ -2292,7 +2309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="B48">
         <v>0.43</v>
       </c>
@@ -2315,7 +2332,7 @@
         <v>1.1066666666666582E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" ht="15.75" thickBot="1">
       <c r="B49">
         <v>0.34</v>
       </c>
@@ -2338,7 +2355,7 @@
         <v>2.5733333333333658E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11">
       <c r="B50">
         <v>0.49</v>
       </c>
@@ -2346,7 +2363,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:11">
       <c r="B51">
         <v>0.68</v>
       </c>
@@ -2354,7 +2371,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:11" ht="15.75" thickBot="1">
       <c r="B52">
         <v>0.34</v>
       </c>
@@ -2365,7 +2382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11">
       <c r="B53">
         <v>0.49</v>
       </c>
@@ -2394,7 +2411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11">
       <c r="B54">
         <v>0.49</v>
       </c>
@@ -2423,7 +2440,7 @@
         <v>4.4138734191705664</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11">
       <c r="E55" s="1" t="s">
         <v>19</v>
       </c>
@@ -2440,7 +2457,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2449,7 +2466,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" ht="15.75" thickBot="1">
       <c r="E57" s="2" t="s">
         <v>20</v>
       </c>
@@ -2478,9 +2495,9 @@
       <selection activeCell="C25" sqref="C25:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2491,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2502,7 +2519,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="B3">
         <v>0.49</v>
       </c>
@@ -2510,7 +2527,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4">
         <v>0.48</v>
       </c>
@@ -2518,7 +2535,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="B5">
         <v>0.49</v>
       </c>
@@ -2526,87 +2543,87 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="B6">
         <v>0.49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="B7">
         <v>0.51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8">
         <v>0.47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>0.77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10">
         <v>0.51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="B11">
         <v>0.52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="B12">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="B13">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="B14">
         <v>0.59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="B15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="B16">
         <v>0.46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="B17">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="B18">
         <v>0.54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="B19">
         <v>0.59</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="B20">
         <v>0.66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="B21">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2617,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2628,7 +2645,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="B26">
         <v>0.47</v>
       </c>
@@ -2636,7 +2653,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="B27">
         <v>0.77</v>
       </c>
@@ -2644,7 +2661,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="B28">
         <v>0.51</v>
       </c>
@@ -2652,62 +2669,62 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="B29">
         <v>0.52</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="B30">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="B31">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="B32">
         <v>0.59</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="B33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="B34">
         <v>0.46</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="B35">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="B36">
         <v>0.54</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="B37">
         <v>0.59</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="B38">
         <v>0.66</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="B39">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -2721,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2732,7 +2749,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15.75" thickBot="1">
       <c r="B45">
         <v>0.57999999999999996</v>
       </c>
@@ -2743,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="B46">
         <v>0.59</v>
       </c>
@@ -2766,7 +2783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="B47">
         <v>0.5</v>
       </c>
@@ -2789,7 +2806,7 @@
         <v>2.9599999999999991E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.75" thickBot="1">
       <c r="B48">
         <v>0.46</v>
       </c>
@@ -2809,17 +2826,17 @@
         <v>2.8666666666666671E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11">
       <c r="B49">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:11">
       <c r="B50">
         <v>0.54</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:11" ht="15.75" thickBot="1">
       <c r="B51">
         <v>0.59</v>
       </c>
@@ -2827,7 +2844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:11">
       <c r="B52">
         <v>0.66</v>
       </c>
@@ -2853,7 +2870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:11">
       <c r="B53">
         <v>0.56999999999999995</v>
       </c>
@@ -2879,7 +2896,7 @@
         <v>4.7472253467225149</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:11">
       <c r="E54" s="1" t="s">
         <v>19</v>
       </c>
@@ -2896,7 +2913,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:11">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2905,7 +2922,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:11" ht="15.75" thickBot="1">
       <c r="E56" s="2" t="s">
         <v>20</v>
       </c>
@@ -2934,12 +2951,12 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -2953,7 +2970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2964,7 +2981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="B3">
         <v>154</v>
       </c>
@@ -2975,7 +2992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4">
         <v>113</v>
       </c>
@@ -2998,7 +3015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5">
         <v>56</v>
       </c>
@@ -3021,7 +3038,7 @@
         <v>920.32222222222163</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1">
       <c r="B6">
         <v>140</v>
       </c>
@@ -3044,7 +3061,7 @@
         <v>72.100000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7">
         <v>96</v>
       </c>
@@ -3052,7 +3069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8">
         <v>72</v>
       </c>
@@ -3060,7 +3077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="B9">
         <v>95</v>
       </c>
@@ -3071,7 +3088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10">
         <v>85</v>
       </c>
@@ -3100,7 +3117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11">
         <v>126</v>
       </c>
@@ -3129,7 +3146,7 @@
         <v>4.4138734191705664</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
@@ -3146,7 +3163,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3155,7 +3172,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
@@ -3170,7 +3187,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -3181,7 +3198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3192,7 +3209,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="B19">
         <v>7.3999999999999996E-2</v>
       </c>
@@ -3203,7 +3220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="B20">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -3226,7 +3243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="B21">
         <v>0.56000000000000005</v>
       </c>
@@ -3249,7 +3266,7 @@
         <v>8.1325433333333405E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="B22">
         <v>0.77</v>
       </c>
@@ -3272,7 +3289,7 @@
         <v>1.8333333333333304E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="B23">
         <v>0.82</v>
       </c>
@@ -3280,7 +3297,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="B24">
         <v>0.78</v>
       </c>
@@ -3288,7 +3305,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="B25">
         <v>0.59</v>
       </c>
@@ -3299,7 +3316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="B26">
         <v>0.74</v>
       </c>
@@ -3328,7 +3345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="B27">
         <v>0.76</v>
       </c>
@@ -3357,7 +3374,7 @@
         <v>4.4138734191705664</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
@@ -3374,7 +3391,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -3383,7 +3400,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1">
       <c r="E30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3408,13 +3425,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -3428,7 +3445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3442,7 +3459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="B3">
         <v>70</v>
       </c>
@@ -3456,7 +3473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="B4">
         <v>58</v>
       </c>
@@ -3482,7 +3499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5">
         <v>69</v>
       </c>
@@ -3508,7 +3525,7 @@
         <v>449.95555555555541</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="B6">
         <v>104</v>
       </c>
@@ -3531,7 +3548,7 @@
         <v>290.05555555555554</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7">
         <v>41</v>
       </c>
@@ -3539,7 +3556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8">
         <v>45</v>
       </c>
@@ -3547,7 +3564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="B9">
         <v>36</v>
       </c>
@@ -3558,7 +3575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="B10">
         <v>31</v>
       </c>
@@ -3587,7 +3604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11">
         <v>58</v>
       </c>
@@ -3616,7 +3633,7 @@
         <v>4.4138734191705664</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
@@ -3633,7 +3650,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3642,7 +3659,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
@@ -3657,7 +3674,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -3668,7 +3685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3682,7 +3699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="B19">
         <v>0.42</v>
       </c>
@@ -3696,7 +3713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="B20">
         <v>0.4</v>
       </c>
@@ -3722,7 +3739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="B21">
         <v>0.36</v>
       </c>
@@ -3748,7 +3765,7 @@
         <v>2.5733333333333658E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="B22">
         <v>0.52</v>
       </c>
@@ -3771,7 +3788,7 @@
         <v>6.6711111111111953E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="B23">
         <v>0.47</v>
       </c>
@@ -3779,7 +3796,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="B24">
         <v>0.48</v>
       </c>
@@ -3787,7 +3804,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
       <c r="B25">
         <v>0.42</v>
       </c>
@@ -3798,7 +3815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="B26">
         <v>0.36</v>
       </c>
@@ -3827,7 +3844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="B27">
         <v>0.43</v>
       </c>
@@ -3856,7 +3873,7 @@
         <v>4.4138734191705664</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="F28" s="1" t="s">
         <v>19</v>
       </c>
@@ -3873,7 +3890,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3882,7 +3899,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3907,12 +3924,12 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>27</v>
       </c>
@@ -3926,7 +3943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3940,7 +3957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="B3">
         <v>478</v>
       </c>
@@ -3954,7 +3971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="B4">
         <v>206</v>
       </c>
@@ -3980,7 +3997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="B5">
         <v>137</v>
       </c>
@@ -4006,7 +4023,7 @@
         <v>23234.17777777779</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="B6">
         <v>590</v>
       </c>
@@ -4026,17 +4043,17 @@
         <v>5842.916666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="B7">
         <v>420</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="B8">
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="B9">
         <v>233</v>
       </c>
@@ -4044,7 +4061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="B10">
         <v>213</v>
       </c>
@@ -4070,7 +4087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="B11">
         <v>496</v>
       </c>
@@ -4096,7 +4113,7 @@
         <v>4.7472253467225149</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="F12" s="1" t="s">
         <v>19</v>
       </c>
@@ -4113,7 +4130,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4122,7 +4139,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
@@ -4137,7 +4154,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -4148,7 +4165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -4162,7 +4179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="B19">
         <v>0.3</v>
       </c>
@@ -4176,7 +4193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="B20">
         <v>0.4</v>
       </c>
@@ -4202,7 +4219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="B21">
         <v>0.53</v>
       </c>
@@ -4228,7 +4245,7 @@
         <v>5.1122222222221604E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="B22">
         <v>0.37</v>
       </c>
@@ -4248,17 +4265,17 @@
         <v>7.5833333333333471E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="B23">
         <v>0.47</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="B24">
         <v>0.39</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
       <c r="B25">
         <v>0.38</v>
       </c>
@@ -4266,7 +4283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="B26">
         <v>0.51</v>
       </c>
@@ -4292,7 +4309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="B27">
         <v>0.44</v>
       </c>
@@ -4318,7 +4335,7 @@
         <v>4.7472253467225149</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="F28" s="1" t="s">
         <v>19</v>
       </c>
@@ -4335,7 +4352,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4344,7 +4361,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
@@ -4362,4 +4379,123 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.66</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="7">
+        <v>0.42</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="K12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>